--- a/简称预测(简称的生成).xlsx
+++ b/简称预测(简称的生成).xlsx
@@ -18,14 +18,84 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>论文标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决问题的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验语料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以抄的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A Chinese Dataset with Negative Full Forms for General Abbreviation
+Prediction
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abbreviation processing mainly consists of three tasks, that
+is, abbreviation expansion, abbreviation recognition, and
+abbreviation prediction. Expanding the short form of an
+expression to its full form is called abbreviation expansion.
+Extracting the short form and full form pairs from the context is called abbreviation recognition. Abbreviation prediction refers to predicting the short form of an expression according to its full form.
+Sun et al. (2009) shows that better abbreviation prediction will help improve the performance of abbreviation recognition.
+Robust approach to abbreviating terms: A discriminative latent
+variable model with global information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民日报语料库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用不同的算法(CRF、LSTM）生成了
+包含NFF(没有简称的全称）的数据集。其实没什么贡献啊，这也能发论文啊，还是北大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +187,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +222,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +404,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="57.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2017</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>